--- a/django_backend/core/resources/screen/Inbox.xlsx
+++ b/django_backend/core/resources/screen/Inbox.xlsx
@@ -1057,7 +1057,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T72"/>
+  <dimension ref="A1:T75"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
@@ -1329,7 +1329,7 @@
         </is>
       </c>
       <c r="C14" s="11" t="n">
-        <v>20250214135416</v>
+        <v>20250806173200</v>
       </c>
       <c r="D14" s="8" t="inlineStr">
         <is>
@@ -1428,7 +1428,7 @@
       <c r="A19" s="6" t="n"/>
       <c r="C19" s="11" t="inlineStr">
         <is>
-          <t>inboxRcs</t>
+          <t>sch_rc</t>
         </is>
       </c>
       <c r="D19" s="11" t="inlineStr">
@@ -1438,7 +1438,7 @@
       </c>
       <c r="E19" s="11" t="inlineStr">
         <is>
-          <t>core.models.IkInbox</t>
+          <t>core.db.model.DummyModel</t>
         </is>
       </c>
       <c r="F19" s="11" t="n"/>
@@ -1447,9 +1447,10 @@
       <c r="I19" s="11" t="n"/>
     </row>
     <row r="20">
+      <c r="A20" s="6" t="n"/>
       <c r="C20" s="11" t="inlineStr">
         <is>
-          <t>rmkDialogRc</t>
+          <t>inbox_rcs</t>
         </is>
       </c>
       <c r="D20" s="11" t="inlineStr">
@@ -1459,7 +1460,7 @@
       </c>
       <c r="E20" s="11" t="inlineStr">
         <is>
-          <t>core.db.model.DummyModel</t>
+          <t>core.models.IkInbox</t>
         </is>
       </c>
       <c r="F20" s="11" t="n"/>
@@ -1469,230 +1470,222 @@
     </row>
     <row r="21">
       <c r="A21" s="6" t="n"/>
-      <c r="C21" s="5" t="inlineStr">
-        <is>
-          <t>End of Table</t>
-        </is>
-      </c>
-      <c r="D21" s="3" t="n"/>
-      <c r="E21" s="3" t="n"/>
-      <c r="F21" s="3" t="n"/>
-      <c r="G21" s="3" t="n"/>
-      <c r="H21" s="3" t="n"/>
-      <c r="I21" s="3" t="n"/>
+      <c r="C21" s="11" t="inlineStr">
+        <is>
+          <t>user_rmk_rc</t>
+        </is>
+      </c>
+      <c r="D21" s="11" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E21" s="11" t="inlineStr">
+        <is>
+          <t>core.db.model.DummyModel</t>
+        </is>
+      </c>
+      <c r="F21" s="11" t="n"/>
+      <c r="G21" s="11" t="n"/>
+      <c r="H21" s="11" t="n"/>
+      <c r="I21" s="11" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="6" t="n"/>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>End of Table</t>
+        </is>
+      </c>
+      <c r="D22" s="3" t="n"/>
+      <c r="E22" s="3" t="n"/>
+      <c r="F22" s="3" t="n"/>
+      <c r="G22" s="3" t="n"/>
+      <c r="H22" s="3" t="n"/>
+      <c r="I22" s="3" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="6" t="n"/>
-      <c r="D23" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">fields, table, </t>
-        </is>
-      </c>
-      <c r="S23" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Additional Properties optional keys: </t>
-        </is>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="6" t="n"/>
-      <c r="C24" s="9" t="n"/>
       <c r="D24" s="9" t="inlineStr">
         <is>
+          <t xml:space="preserve">fields, table, </t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Additional Properties optional keys: </t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="6" t="n"/>
+      <c r="C25" s="9" t="n"/>
+      <c r="D25" s="9" t="inlineStr">
+        <is>
           <t>chart, iconBar</t>
         </is>
       </c>
-      <c r="G24" s="9" t="inlineStr">
+      <c r="G25" s="9" t="inlineStr">
         <is>
           <t>( yes/ blank )</t>
         </is>
       </c>
-      <c r="H24" s="9" t="inlineStr">
+      <c r="H25" s="9" t="inlineStr">
         <is>
           <t>( yes/ blank )</t>
         </is>
       </c>
-      <c r="I24" s="9" t="inlineStr">
+      <c r="I25" s="9" t="inlineStr">
         <is>
           <t>( yes/ blank )</t>
         </is>
       </c>
-      <c r="J24" s="9" t="inlineStr">
+      <c r="J25" s="9" t="inlineStr">
         <is>
           <t>( yes/ blank )</t>
         </is>
       </c>
-      <c r="K24" s="9" t="inlineStr">
+      <c r="K25" s="9" t="inlineStr">
         <is>
           <t>( single/ multiple/ blank )</t>
         </is>
       </c>
-      <c r="L24" s="9" t="n"/>
-      <c r="M24" s="9" t="inlineStr">
+      <c r="L25" s="9" t="n"/>
+      <c r="M25" s="9" t="inlineStr">
         <is>
           <t>( client/ server/ blank )</t>
         </is>
       </c>
-      <c r="N24" s="9" t="n"/>
-      <c r="S24" s="9" t="inlineStr">
+      <c r="N25" s="9" t="n"/>
+      <c r="S25" s="9" t="inlineStr">
         <is>
           <t>sortNewRows / tableHeight / …</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="7" t="inlineStr">
+    <row r="26">
+      <c r="A26" s="7" t="inlineStr">
         <is>
           <t>fieldGroupTable</t>
         </is>
       </c>
-      <c r="B25" s="1" t="inlineStr">
+      <c r="B26" s="1" t="inlineStr">
         <is>
           <t>Field Groups</t>
         </is>
       </c>
-      <c r="C25" s="3" t="inlineStr">
+      <c r="C26" s="3" t="inlineStr">
         <is>
           <t>Field Group Name</t>
         </is>
       </c>
-      <c r="D25" s="3" t="inlineStr">
+      <c r="D26" s="3" t="inlineStr">
         <is>
           <t>Group Type</t>
         </is>
       </c>
-      <c r="E25" s="3" t="inlineStr">
+      <c r="E26" s="3" t="inlineStr">
         <is>
           <t>Caption</t>
         </is>
       </c>
-      <c r="F25" s="3" t="inlineStr">
+      <c r="F26" s="3" t="inlineStr">
         <is>
           <t>Recordset</t>
         </is>
       </c>
-      <c r="G25" s="3" t="inlineStr">
+      <c r="G26" s="3" t="inlineStr">
         <is>
           <t>Deletable</t>
         </is>
       </c>
-      <c r="H25" s="3" t="inlineStr">
+      <c r="H26" s="3" t="inlineStr">
         <is>
           <t>Editable</t>
         </is>
       </c>
-      <c r="I25" s="3" t="inlineStr">
+      <c r="I26" s="3" t="inlineStr">
         <is>
           <t>Insertable</t>
         </is>
       </c>
-      <c r="J25" s="3" t="inlineStr">
+      <c r="J26" s="3" t="inlineStr">
         <is>
           <t>Highlight Row</t>
         </is>
       </c>
-      <c r="K25" s="3" t="inlineStr">
+      <c r="K26" s="3" t="inlineStr">
         <is>
           <t>Selection Mode</t>
         </is>
       </c>
-      <c r="L25" s="3" t="inlineStr">
+      <c r="L26" s="3" t="inlineStr">
         <is>
           <t>Cols</t>
         </is>
       </c>
-      <c r="M25" s="3" t="inlineStr">
+      <c r="M26" s="3" t="inlineStr">
         <is>
           <t>Page Type</t>
         </is>
       </c>
-      <c r="N25" s="3" t="inlineStr">
+      <c r="N26" s="3" t="inlineStr">
         <is>
           <t>Page Size</t>
         </is>
       </c>
-      <c r="O25" s="3" t="inlineStr">
+      <c r="O26" s="3" t="inlineStr">
         <is>
           <t>Outer Layout Parameters</t>
         </is>
       </c>
-      <c r="P25" s="3" t="inlineStr">
+      <c r="P26" s="3" t="inlineStr">
         <is>
           <t>Inner Layout Type</t>
         </is>
       </c>
-      <c r="Q25" s="3" t="inlineStr">
+      <c r="Q26" s="3" t="inlineStr">
         <is>
           <t>Inner Layout Parameters</t>
         </is>
       </c>
-      <c r="R25" s="3" t="inlineStr">
+      <c r="R26" s="3" t="inlineStr">
         <is>
           <t>Html</t>
         </is>
       </c>
-      <c r="S25" s="3" t="inlineStr">
+      <c r="S26" s="3" t="inlineStr">
         <is>
           <t>Additional Properties</t>
         </is>
       </c>
-      <c r="T25" s="3" t="inlineStr">
+      <c r="T26" s="3" t="inlineStr">
         <is>
           <t>Remarks</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="B26" s="1" t="n"/>
-      <c r="C26" s="11" t="inlineStr">
+    <row r="27">
+      <c r="B27" s="1" t="n"/>
+      <c r="C27" s="11" t="inlineStr">
         <is>
           <t>schFg</t>
         </is>
       </c>
-      <c r="D26" s="11" t="inlineStr">
+      <c r="D27" s="11" t="inlineStr">
         <is>
           <t>search</t>
         </is>
       </c>
-      <c r="E26" s="11" t="n"/>
-      <c r="F26" s="11" t="n"/>
-      <c r="G26" s="11" t="n"/>
-      <c r="H26" s="11" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="I26" s="11" t="n"/>
-      <c r="J26" s="11" t="n"/>
-      <c r="K26" s="11" t="n"/>
-      <c r="L26" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="M26" s="11" t="n"/>
-      <c r="N26" s="11" t="n"/>
-      <c r="O26" s="11" t="n"/>
-      <c r="P26" s="11" t="n"/>
-      <c r="Q26" s="11" t="n"/>
-      <c r="R26" s="11" t="n"/>
-      <c r="S26" s="11" t="n"/>
-      <c r="T26" s="11" t="n"/>
-    </row>
-    <row r="27">
-      <c r="C27" s="11" t="inlineStr">
-        <is>
-          <t>dividingLine</t>
-        </is>
-      </c>
-      <c r="D27" s="11" t="inlineStr">
-        <is>
-          <t>html</t>
-        </is>
-      </c>
       <c r="E27" s="11" t="n"/>
-      <c r="F27" s="11" t="n"/>
+      <c r="F27" s="11" t="inlineStr">
+        <is>
+          <t>sch_rc</t>
+        </is>
+      </c>
       <c r="G27" s="11" t="n"/>
       <c r="H27" s="11" t="inlineStr">
         <is>
@@ -1702,91 +1695,95 @@
       <c r="I27" s="11" t="n"/>
       <c r="J27" s="11" t="n"/>
       <c r="K27" s="11" t="n"/>
-      <c r="L27" s="11" t="n"/>
+      <c r="L27" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="M27" s="11" t="n"/>
       <c r="N27" s="11" t="n"/>
       <c r="O27" s="11" t="n"/>
       <c r="P27" s="11" t="n"/>
       <c r="Q27" s="11" t="n"/>
-      <c r="R27" s="11" t="inlineStr">
-        <is>
-          <t>&lt;hr&gt;</t>
-        </is>
-      </c>
+      <c r="R27" s="11" t="n"/>
       <c r="S27" s="11" t="n"/>
       <c r="T27" s="11" t="n"/>
     </row>
     <row r="28">
+      <c r="B28" s="1" t="n"/>
       <c r="C28" s="11" t="inlineStr">
         <is>
-          <t>inboxFg</t>
+          <t>dividingLine</t>
         </is>
       </c>
       <c r="D28" s="11" t="inlineStr">
         <is>
-          <t>resultTable</t>
+          <t>html</t>
         </is>
       </c>
       <c r="E28" s="11" t="n"/>
-      <c r="F28" s="11" t="inlineStr">
-        <is>
-          <t>inboxRcs</t>
-        </is>
-      </c>
+      <c r="F28" s="11" t="n"/>
       <c r="G28" s="11" t="n"/>
-      <c r="H28" s="11" t="n"/>
+      <c r="H28" s="11" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
       <c r="I28" s="11" t="n"/>
-      <c r="J28" s="11" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="K28" s="11" t="inlineStr">
-        <is>
-          <t>multiple</t>
-        </is>
-      </c>
+      <c r="J28" s="11" t="n"/>
+      <c r="K28" s="11" t="n"/>
       <c r="L28" s="11" t="n"/>
-      <c r="M28" s="11" t="inlineStr">
-        <is>
-          <t>server</t>
-        </is>
-      </c>
-      <c r="N28" s="11" t="n">
-        <v>100</v>
-      </c>
+      <c r="M28" s="11" t="n"/>
+      <c r="N28" s="11" t="n"/>
       <c r="O28" s="11" t="n"/>
       <c r="P28" s="11" t="n"/>
       <c r="Q28" s="11" t="n"/>
-      <c r="R28" s="11" t="n"/>
+      <c r="R28" s="11" t="inlineStr">
+        <is>
+          <t>&lt;hr&gt;</t>
+        </is>
+      </c>
       <c r="S28" s="11" t="n"/>
       <c r="T28" s="11" t="n"/>
     </row>
     <row r="29">
+      <c r="B29" s="1" t="n"/>
       <c r="C29" s="11" t="inlineStr">
         <is>
-          <t>toolbar</t>
+          <t>inboxFg</t>
         </is>
       </c>
       <c r="D29" s="11" t="inlineStr">
         <is>
-          <t>iconBar</t>
+          <t>resultTable</t>
         </is>
       </c>
       <c r="E29" s="11" t="n"/>
-      <c r="F29" s="11" t="n"/>
+      <c r="F29" s="11" t="inlineStr">
+        <is>
+          <t>inbox_rcs</t>
+        </is>
+      </c>
       <c r="G29" s="11" t="n"/>
-      <c r="H29" s="11" t="inlineStr">
+      <c r="H29" s="11" t="n"/>
+      <c r="I29" s="11" t="n"/>
+      <c r="J29" s="11" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="I29" s="11" t="n"/>
-      <c r="J29" s="11" t="n"/>
-      <c r="K29" s="11" t="n"/>
+      <c r="K29" s="11" t="inlineStr">
+        <is>
+          <t>multiple</t>
+        </is>
+      </c>
       <c r="L29" s="11" t="n"/>
-      <c r="M29" s="11" t="n"/>
-      <c r="N29" s="11" t="n"/>
+      <c r="M29" s="11" t="inlineStr">
+        <is>
+          <t>server</t>
+        </is>
+      </c>
+      <c r="N29" s="11" t="n">
+        <v>100</v>
+      </c>
       <c r="O29" s="11" t="n"/>
       <c r="P29" s="11" t="n"/>
       <c r="Q29" s="11" t="n"/>
@@ -1795,22 +1792,19 @@
       <c r="T29" s="11" t="n"/>
     </row>
     <row r="30">
+      <c r="B30" s="1" t="n"/>
       <c r="C30" s="11" t="inlineStr">
         <is>
-          <t>usrRmkDialog</t>
+          <t>toolbar</t>
         </is>
       </c>
       <c r="D30" s="11" t="inlineStr">
         <is>
-          <t>fields</t>
+          <t>iconBar</t>
         </is>
       </c>
       <c r="E30" s="11" t="n"/>
-      <c r="F30" s="11" t="inlineStr">
-        <is>
-          <t>rmkDialogRc</t>
-        </is>
-      </c>
+      <c r="F30" s="11" t="n"/>
       <c r="G30" s="11" t="n"/>
       <c r="H30" s="11" t="inlineStr">
         <is>
@@ -1831,195 +1825,200 @@
       <c r="T30" s="11" t="n"/>
     </row>
     <row r="31">
-      <c r="C31" s="5" t="inlineStr">
+      <c r="B31" s="1" t="n"/>
+      <c r="C31" s="11" t="inlineStr">
+        <is>
+          <t>usrRmkDialog</t>
+        </is>
+      </c>
+      <c r="D31" s="11" t="inlineStr">
+        <is>
+          <t>fields</t>
+        </is>
+      </c>
+      <c r="E31" s="11" t="n"/>
+      <c r="F31" s="11" t="inlineStr">
+        <is>
+          <t>user_rmk_rc</t>
+        </is>
+      </c>
+      <c r="G31" s="11" t="n"/>
+      <c r="H31" s="11" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="I31" s="11" t="n"/>
+      <c r="J31" s="11" t="n"/>
+      <c r="K31" s="11" t="n"/>
+      <c r="L31" s="11" t="n"/>
+      <c r="M31" s="11" t="n"/>
+      <c r="N31" s="11" t="n"/>
+      <c r="O31" s="11" t="n"/>
+      <c r="P31" s="11" t="n"/>
+      <c r="Q31" s="11" t="n"/>
+      <c r="R31" s="11" t="n"/>
+      <c r="S31" s="11" t="n"/>
+      <c r="T31" s="11" t="n"/>
+    </row>
+    <row r="32">
+      <c r="C32" s="5" t="inlineStr">
         <is>
           <t>End of Table</t>
         </is>
       </c>
-      <c r="D31" s="3" t="n"/>
-      <c r="E31" s="3" t="n"/>
-      <c r="F31" s="3" t="n"/>
-      <c r="G31" s="3" t="n"/>
-      <c r="H31" s="3" t="n"/>
-      <c r="I31" s="3" t="n"/>
-      <c r="J31" s="3" t="n"/>
-      <c r="K31" s="3" t="n"/>
-      <c r="L31" s="3" t="n"/>
-      <c r="M31" s="3" t="n"/>
-      <c r="N31" s="3" t="n"/>
-      <c r="O31" s="3" t="n"/>
-      <c r="P31" s="3" t="n"/>
-      <c r="Q31" s="3" t="n"/>
-      <c r="R31" s="3" t="n"/>
-      <c r="S31" s="3" t="n"/>
-      <c r="T31" s="3" t="n"/>
-    </row>
-    <row r="32"/>
-    <row r="33">
-      <c r="K33" s="9" t="n"/>
-      <c r="M33" s="9" t="n"/>
-    </row>
+      <c r="D32" s="3" t="n"/>
+      <c r="E32" s="3" t="n"/>
+      <c r="F32" s="3" t="n"/>
+      <c r="G32" s="3" t="n"/>
+      <c r="H32" s="3" t="n"/>
+      <c r="I32" s="3" t="n"/>
+      <c r="J32" s="3" t="n"/>
+      <c r="K32" s="3" t="n"/>
+      <c r="L32" s="3" t="n"/>
+      <c r="M32" s="3" t="n"/>
+      <c r="N32" s="3" t="n"/>
+      <c r="O32" s="3" t="n"/>
+      <c r="P32" s="3" t="n"/>
+      <c r="Q32" s="3" t="n"/>
+      <c r="R32" s="3" t="n"/>
+      <c r="S32" s="3" t="n"/>
+      <c r="T32" s="3" t="n"/>
+    </row>
+    <row r="33"/>
     <row r="34">
-      <c r="C34" s="9" t="n"/>
-      <c r="D34" s="9" t="inlineStr">
+      <c r="K34" s="9" t="n"/>
+      <c r="M34" s="9" t="n"/>
+    </row>
+    <row r="35">
+      <c r="C35" s="9" t="n"/>
+      <c r="D35" s="9" t="inlineStr">
         <is>
           <t>Python Name</t>
         </is>
       </c>
-      <c r="E34" s="9" t="n"/>
-      <c r="F34" s="9" t="n"/>
-      <c r="G34" s="9" t="n"/>
-      <c r="H34" s="10" t="inlineStr">
+      <c r="E35" s="9" t="n"/>
+      <c r="F35" s="9" t="n"/>
+      <c r="G35" s="9" t="n"/>
+      <c r="H35" s="10" t="inlineStr">
         <is>
           <t>( blank / no  )</t>
         </is>
       </c>
-      <c r="I34" s="9" t="inlineStr">
+      <c r="I35" s="9" t="inlineStr">
         <is>
           <t>( yes/ no/ blank )</t>
         </is>
       </c>
-      <c r="J34" s="9" t="inlineStr">
+      <c r="J35" s="9" t="inlineStr">
         <is>
           <t>( yes/ no/ blank )</t>
         </is>
       </c>
-      <c r="K34" s="10" t="inlineStr">
+      <c r="K35" s="10" t="inlineStr">
         <is>
           <t>e.g. textbox</t>
         </is>
       </c>
-      <c r="M34" s="15" t="n"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="7" t="inlineStr">
+      <c r="M35" s="15" t="n"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="7" t="inlineStr">
         <is>
           <t>fieldTable</t>
         </is>
       </c>
-      <c r="B35" s="1" t="inlineStr">
+      <c r="B36" s="1" t="inlineStr">
         <is>
           <t>Fields</t>
         </is>
       </c>
-      <c r="C35" s="3" t="inlineStr">
+      <c r="C36" s="3" t="inlineStr">
         <is>
           <t>Field Group Name</t>
         </is>
       </c>
-      <c r="D35" s="3" t="inlineStr">
+      <c r="D36" s="3" t="inlineStr">
         <is>
           <t>Field Name</t>
         </is>
       </c>
-      <c r="E35" s="3" t="inlineStr">
+      <c r="E36" s="3" t="inlineStr">
         <is>
           <t>Caption</t>
         </is>
       </c>
-      <c r="F35" s="3" t="inlineStr">
+      <c r="F36" s="3" t="inlineStr">
         <is>
           <t>Tooltip</t>
         </is>
       </c>
-      <c r="G35" s="3" t="inlineStr">
+      <c r="G36" s="3" t="inlineStr">
         <is>
           <t>Hidden</t>
         </is>
       </c>
-      <c r="H35" s="3" t="inlineStr">
+      <c r="H36" s="3" t="inlineStr">
         <is>
           <t>Editable</t>
         </is>
       </c>
-      <c r="I35" s="3" t="inlineStr">
+      <c r="I36" s="3" t="inlineStr">
         <is>
           <t>Unique</t>
         </is>
       </c>
-      <c r="J35" s="3" t="inlineStr">
+      <c r="J36" s="3" t="inlineStr">
         <is>
           <t>Required</t>
         </is>
       </c>
-      <c r="K35" s="3" t="inlineStr">
+      <c r="K36" s="3" t="inlineStr">
         <is>
           <t>Widget</t>
         </is>
       </c>
-      <c r="L35" s="3" t="inlineStr">
+      <c r="L36" s="3" t="inlineStr">
         <is>
           <t>Widget Parameters</t>
         </is>
       </c>
-      <c r="M35" s="3" t="inlineStr">
+      <c r="M36" s="3" t="inlineStr">
         <is>
           <t>Field</t>
         </is>
       </c>
-      <c r="N35" s="3" t="inlineStr">
+      <c r="N36" s="3" t="inlineStr">
         <is>
           <t>Event Handler</t>
         </is>
       </c>
-      <c r="O35" s="3" t="inlineStr">
+      <c r="O36" s="3" t="inlineStr">
         <is>
           <t>Styles</t>
         </is>
       </c>
-      <c r="P35" s="3" t="inlineStr">
+      <c r="P36" s="3" t="inlineStr">
         <is>
           <t>Remarks</t>
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="B36" s="1" t="n"/>
-      <c r="C36" s="11" t="inlineStr">
+    <row r="37">
+      <c r="B37" s="1" t="n"/>
+      <c r="C37" s="11" t="inlineStr">
         <is>
           <t>schFg</t>
         </is>
       </c>
-      <c r="D36" s="11" t="inlineStr">
-        <is>
-          <t>schFgDtFrom</t>
-        </is>
-      </c>
-      <c r="E36" s="11" t="inlineStr">
+      <c r="D37" s="11" t="inlineStr">
+        <is>
+          <t>schDtFrom</t>
+        </is>
+      </c>
+      <c r="E37" s="11" t="inlineStr">
         <is>
           <t>Date From</t>
-        </is>
-      </c>
-      <c r="F36" s="11" t="n"/>
-      <c r="G36" s="11" t="n"/>
-      <c r="H36" s="11" t="n"/>
-      <c r="I36" s="11" t="n"/>
-      <c r="J36" s="11" t="n"/>
-      <c r="K36" s="11" t="inlineStr">
-        <is>
-          <t>DateBox</t>
-        </is>
-      </c>
-      <c r="L36" s="11" t="n"/>
-      <c r="M36" s="11" t="n"/>
-      <c r="N36" s="11" t="inlineStr">
-        <is>
-          <t>search</t>
-        </is>
-      </c>
-      <c r="O36" s="11" t="n"/>
-      <c r="P36" s="11" t="n"/>
-    </row>
-    <row r="37">
-      <c r="C37" s="11" t="n"/>
-      <c r="D37" s="11" t="inlineStr">
-        <is>
-          <t>schFgDtTo</t>
-        </is>
-      </c>
-      <c r="E37" s="11" t="inlineStr">
-        <is>
-          <t>Date To</t>
         </is>
       </c>
       <c r="F37" s="11" t="n"/>
@@ -2034,20 +2033,25 @@
       </c>
       <c r="L37" s="11" t="n"/>
       <c r="M37" s="11" t="n"/>
-      <c r="N37" s="11" t="n"/>
+      <c r="N37" s="11" t="inlineStr">
+        <is>
+          <t>search</t>
+        </is>
+      </c>
       <c r="O37" s="11" t="n"/>
       <c r="P37" s="11" t="n"/>
     </row>
     <row r="38">
+      <c r="B38" s="1" t="n"/>
       <c r="C38" s="11" t="n"/>
       <c r="D38" s="11" t="inlineStr">
         <is>
-          <t>schFgModule</t>
+          <t>schDtTo</t>
         </is>
       </c>
       <c r="E38" s="11" t="inlineStr">
         <is>
-          <t>Module</t>
+          <t>Date To</t>
         </is>
       </c>
       <c r="F38" s="11" t="n"/>
@@ -2057,33 +2061,26 @@
       <c r="J38" s="11" t="n"/>
       <c r="K38" s="11" t="inlineStr">
         <is>
-          <t>ComboBox</t>
-        </is>
-      </c>
-      <c r="L38" s="11" t="inlineStr">
-        <is>
-          <t>dataUrl: getInboxModules</t>
-        </is>
-      </c>
+          <t>DateBox</t>
+        </is>
+      </c>
+      <c r="L38" s="11" t="n"/>
       <c r="M38" s="11" t="n"/>
       <c r="N38" s="11" t="n"/>
-      <c r="O38" s="11" t="inlineStr">
-        <is>
-          <t>width: 150px;</t>
-        </is>
-      </c>
+      <c r="O38" s="11" t="n"/>
       <c r="P38" s="11" t="n"/>
     </row>
     <row r="39">
+      <c r="B39" s="1" t="n"/>
       <c r="C39" s="11" t="n"/>
       <c r="D39" s="11" t="inlineStr">
         <is>
-          <t>schFgStatus</t>
+          <t>schModule</t>
         </is>
       </c>
       <c r="E39" s="11" t="inlineStr">
         <is>
-          <t>Status</t>
+          <t>Module</t>
         </is>
       </c>
       <c r="F39" s="11" t="n"/>
@@ -2098,28 +2095,25 @@
       </c>
       <c r="L39" s="11" t="inlineStr">
         <is>
-          <t>dataUrl: getInboxStatus</t>
+          <t>dataUrl: get_inbox_modules</t>
         </is>
       </c>
       <c r="M39" s="11" t="n"/>
       <c r="N39" s="11" t="n"/>
-      <c r="O39" s="11" t="inlineStr">
-        <is>
-          <t>width: 150px;</t>
-        </is>
-      </c>
+      <c r="O39" s="11" t="n"/>
       <c r="P39" s="11" t="n"/>
     </row>
     <row r="40">
+      <c r="B40" s="1" t="n"/>
       <c r="C40" s="11" t="n"/>
       <c r="D40" s="11" t="inlineStr">
         <is>
-          <t>schFgKeyword</t>
+          <t>schStatus</t>
         </is>
       </c>
       <c r="E40" s="11" t="inlineStr">
         <is>
-          <t>Keyword</t>
+          <t>Status</t>
         </is>
       </c>
       <c r="F40" s="11" t="n"/>
@@ -2129,29 +2123,30 @@
       <c r="J40" s="11" t="n"/>
       <c r="K40" s="11" t="inlineStr">
         <is>
-          <t>TextBox</t>
-        </is>
-      </c>
-      <c r="L40" s="11" t="n"/>
+          <t>ComboBox</t>
+        </is>
+      </c>
+      <c r="L40" s="11" t="inlineStr">
+        <is>
+          <t>dataUrl: get_inbox_status</t>
+        </is>
+      </c>
       <c r="M40" s="11" t="n"/>
       <c r="N40" s="11" t="n"/>
-      <c r="O40" s="11" t="inlineStr">
-        <is>
-          <t>width: 150px;</t>
-        </is>
-      </c>
+      <c r="O40" s="11" t="n"/>
       <c r="P40" s="11" t="n"/>
     </row>
     <row r="41">
-      <c r="C41" s="11" t="inlineStr">
-        <is>
-          <t>inboxFg</t>
-        </is>
-      </c>
-      <c r="D41" s="11" t="n"/>
+      <c r="B41" s="1" t="n"/>
+      <c r="C41" s="11" t="n"/>
+      <c r="D41" s="11" t="inlineStr">
+        <is>
+          <t>schKeyword</t>
+        </is>
+      </c>
       <c r="E41" s="11" t="inlineStr">
         <is>
-          <t>Date</t>
+          <t>Keyword</t>
         </is>
       </c>
       <c r="F41" s="11" t="n"/>
@@ -2161,29 +2156,26 @@
       <c r="J41" s="11" t="n"/>
       <c r="K41" s="11" t="inlineStr">
         <is>
-          <t>Label</t>
-        </is>
-      </c>
-      <c r="L41" s="11" t="inlineStr">
-        <is>
-          <t>format: yyyy-MM-dd HH:mm:ss</t>
-        </is>
-      </c>
-      <c r="M41" s="11" t="inlineStr">
-        <is>
-          <t>send_dt</t>
-        </is>
-      </c>
+          <t>TextBox</t>
+        </is>
+      </c>
+      <c r="L41" s="11" t="n"/>
+      <c r="M41" s="11" t="n"/>
       <c r="N41" s="11" t="n"/>
       <c r="O41" s="11" t="n"/>
       <c r="P41" s="11" t="n"/>
     </row>
     <row r="42">
-      <c r="C42" s="11" t="n"/>
+      <c r="B42" s="1" t="n"/>
+      <c r="C42" s="11" t="inlineStr">
+        <is>
+          <t>inboxFg</t>
+        </is>
+      </c>
       <c r="D42" s="11" t="n"/>
       <c r="E42" s="11" t="inlineStr">
         <is>
-          <t>From</t>
+          <t>Date</t>
         </is>
       </c>
       <c r="F42" s="11" t="n"/>
@@ -2196,10 +2188,14 @@
           <t>Label</t>
         </is>
       </c>
-      <c r="L42" s="11" t="n"/>
+      <c r="L42" s="11" t="inlineStr">
+        <is>
+          <t>format: yyyy-MM-dd HH:mm:ss</t>
+        </is>
+      </c>
       <c r="M42" s="11" t="inlineStr">
         <is>
-          <t>sender.usr_nm</t>
+          <t>send_dt</t>
         </is>
       </c>
       <c r="N42" s="11" t="n"/>
@@ -2207,11 +2203,12 @@
       <c r="P42" s="11" t="n"/>
     </row>
     <row r="43">
+      <c r="B43" s="1" t="n"/>
       <c r="C43" s="11" t="n"/>
       <c r="D43" s="11" t="n"/>
       <c r="E43" s="11" t="inlineStr">
         <is>
-          <t>Module</t>
+          <t>From</t>
         </is>
       </c>
       <c r="F43" s="11" t="n"/>
@@ -2227,7 +2224,7 @@
       <c r="L43" s="11" t="n"/>
       <c r="M43" s="11" t="inlineStr">
         <is>
-          <t>module</t>
+          <t>sender.usr_nm</t>
         </is>
       </c>
       <c r="N43" s="11" t="n"/>
@@ -2235,11 +2232,12 @@
       <c r="P43" s="11" t="n"/>
     </row>
     <row r="44">
+      <c r="B44" s="1" t="n"/>
       <c r="C44" s="11" t="n"/>
       <c r="D44" s="11" t="n"/>
       <c r="E44" s="11" t="inlineStr">
         <is>
-          <t>Summary</t>
+          <t>Module</t>
         </is>
       </c>
       <c r="F44" s="11" t="n"/>
@@ -2255,7 +2253,7 @@
       <c r="L44" s="11" t="n"/>
       <c r="M44" s="11" t="inlineStr">
         <is>
-          <t>summary</t>
+          <t>module</t>
         </is>
       </c>
       <c r="N44" s="11" t="n"/>
@@ -2263,11 +2261,12 @@
       <c r="P44" s="11" t="n"/>
     </row>
     <row r="45">
+      <c r="B45" s="1" t="n"/>
       <c r="C45" s="11" t="n"/>
       <c r="D45" s="11" t="n"/>
       <c r="E45" s="11" t="inlineStr">
         <is>
-          <t>Remark</t>
+          <t>Summary</t>
         </is>
       </c>
       <c r="F45" s="11" t="n"/>
@@ -2283,7 +2282,7 @@
       <c r="L45" s="11" t="n"/>
       <c r="M45" s="11" t="inlineStr">
         <is>
-          <t>usr_rmk</t>
+          <t>summary</t>
         </is>
       </c>
       <c r="N45" s="11" t="n"/>
@@ -2291,44 +2290,41 @@
       <c r="P45" s="11" t="n"/>
     </row>
     <row r="46">
+      <c r="B46" s="1" t="n"/>
       <c r="C46" s="11" t="n"/>
       <c r="D46" s="11" t="n"/>
-      <c r="E46" s="11" t="n"/>
-      <c r="F46" s="11" t="inlineStr">
-        <is>
-          <t>Eidt remark.</t>
-        </is>
-      </c>
+      <c r="E46" s="11" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="F46" s="11" t="n"/>
       <c r="G46" s="11" t="n"/>
       <c r="H46" s="11" t="n"/>
       <c r="I46" s="11" t="n"/>
       <c r="J46" s="11" t="n"/>
       <c r="K46" s="11" t="inlineStr">
         <is>
-          <t>Button</t>
-        </is>
-      </c>
-      <c r="L46" s="11" t="inlineStr">
-        <is>
-          <t>icon: images/action_button.gif
-dialog: name:inputUserRmk;title:Edit Remark;beforeDisplayEvent:postPreRmk;continueName:Save</t>
-        </is>
-      </c>
-      <c r="M46" s="11" t="n"/>
-      <c r="N46" s="11" t="inlineStr">
-        <is>
-          <t>updateUserRmk</t>
-        </is>
-      </c>
+          <t>Label</t>
+        </is>
+      </c>
+      <c r="L46" s="11" t="n"/>
+      <c r="M46" s="11" t="inlineStr">
+        <is>
+          <t>sts</t>
+        </is>
+      </c>
+      <c r="N46" s="11" t="n"/>
       <c r="O46" s="11" t="n"/>
       <c r="P46" s="11" t="n"/>
     </row>
     <row r="47">
+      <c r="B47" s="1" t="n"/>
       <c r="C47" s="11" t="n"/>
       <c r="D47" s="11" t="n"/>
       <c r="E47" s="11" t="inlineStr">
         <is>
-          <t>Open</t>
+          <t>Remark</t>
         </is>
       </c>
       <c r="F47" s="11" t="n"/>
@@ -2338,44 +2334,29 @@
       <c r="J47" s="11" t="n"/>
       <c r="K47" s="11" t="inlineStr">
         <is>
-          <t>Button</t>
-        </is>
-      </c>
-      <c r="L47" s="11" t="inlineStr">
-        <is>
-          <t>icon: images/goto_sbutton.gif</t>
-        </is>
-      </c>
+          <t>Label</t>
+        </is>
+      </c>
+      <c r="L47" s="11" t="n"/>
       <c r="M47" s="11" t="inlineStr">
         <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="N47" s="11" t="inlineStr">
-        <is>
-          <t>openDetail</t>
-        </is>
-      </c>
+          <t>usr_rmk</t>
+        </is>
+      </c>
+      <c r="N47" s="11" t="n"/>
       <c r="O47" s="11" t="n"/>
       <c r="P47" s="11" t="n"/>
     </row>
     <row r="48">
-      <c r="C48" s="11" t="inlineStr">
-        <is>
-          <t>toolbar</t>
-        </is>
-      </c>
-      <c r="D48" s="11" t="inlineStr">
-        <is>
-          <t>bttRead</t>
-        </is>
-      </c>
-      <c r="E48" s="11" t="inlineStr">
-        <is>
-          <t>Read</t>
-        </is>
-      </c>
-      <c r="F48" s="11" t="n"/>
+      <c r="B48" s="1" t="n"/>
+      <c r="C48" s="11" t="n"/>
+      <c r="D48" s="11" t="n"/>
+      <c r="E48" s="11" t="n"/>
+      <c r="F48" s="11" t="inlineStr">
+        <is>
+          <t>Eidt remark.</t>
+        </is>
+      </c>
       <c r="G48" s="11" t="n"/>
       <c r="H48" s="11" t="n"/>
       <c r="I48" s="11" t="n"/>
@@ -2387,28 +2368,26 @@
       </c>
       <c r="L48" s="11" t="inlineStr">
         <is>
-          <t>icon: images/checkbox_true.gif</t>
+          <t>icon: images/action_button.gif
+dialog: name:inputUserRmk;title:Edit Remark;beforeDisplayEvent:post_pre_rmk;continueName:Save</t>
         </is>
       </c>
       <c r="M48" s="11" t="n"/>
       <c r="N48" s="11" t="inlineStr">
         <is>
-          <t>markSelectedRead(inboxFg)</t>
+          <t>update_user_rmk</t>
         </is>
       </c>
       <c r="O48" s="11" t="n"/>
       <c r="P48" s="11" t="n"/>
     </row>
     <row r="49">
+      <c r="B49" s="1" t="n"/>
       <c r="C49" s="11" t="n"/>
-      <c r="D49" s="11" t="inlineStr">
-        <is>
-          <t>bttUnRead</t>
-        </is>
-      </c>
+      <c r="D49" s="11" t="n"/>
       <c r="E49" s="11" t="inlineStr">
         <is>
-          <t>UnRead</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="F49" s="11" t="n"/>
@@ -2423,28 +2402,37 @@
       </c>
       <c r="L49" s="11" t="inlineStr">
         <is>
-          <t>icon: images/checkbox_false.gif</t>
-        </is>
-      </c>
-      <c r="M49" s="11" t="n"/>
+          <t>icon: images/goto_sbutton.gif</t>
+        </is>
+      </c>
+      <c r="M49" s="11" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
       <c r="N49" s="11" t="inlineStr">
         <is>
-          <t>markSelectedUnread(inboxFg)</t>
+          <t>open_screen</t>
         </is>
       </c>
       <c r="O49" s="11" t="n"/>
       <c r="P49" s="11" t="n"/>
     </row>
     <row r="50">
-      <c r="C50" s="11" t="n"/>
+      <c r="B50" s="1" t="n"/>
+      <c r="C50" s="11" t="inlineStr">
+        <is>
+          <t>toolbar</t>
+        </is>
+      </c>
       <c r="D50" s="11" t="inlineStr">
         <is>
-          <t>bttDelete</t>
+          <t>bttRead</t>
         </is>
       </c>
       <c r="E50" s="11" t="inlineStr">
         <is>
-          <t>Delete</t>
+          <t>Read</t>
         </is>
       </c>
       <c r="F50" s="11" t="n"/>
@@ -2459,32 +2447,29 @@
       </c>
       <c r="L50" s="11" t="inlineStr">
         <is>
-          <t>icon: images/delete_button.gif</t>
+          <t>icon: images/checkbox_true.gif</t>
         </is>
       </c>
       <c r="M50" s="11" t="n"/>
       <c r="N50" s="11" t="inlineStr">
         <is>
-          <t>markSelectedDelete(inboxFg)</t>
+          <t>mark_read(inboxFg)</t>
         </is>
       </c>
       <c r="O50" s="11" t="n"/>
       <c r="P50" s="11" t="n"/>
     </row>
     <row r="51">
-      <c r="C51" s="11" t="inlineStr">
-        <is>
-          <t>usrRmkDialog</t>
-        </is>
-      </c>
+      <c r="B51" s="1" t="n"/>
+      <c r="C51" s="11" t="n"/>
       <c r="D51" s="11" t="inlineStr">
         <is>
-          <t>usrRmkField</t>
+          <t>bttUnRead</t>
         </is>
       </c>
       <c r="E51" s="11" t="inlineStr">
         <is>
-          <t>Remark:</t>
+          <t>UnRead</t>
         </is>
       </c>
       <c r="F51" s="11" t="n"/>
@@ -2494,251 +2479,366 @@
       <c r="J51" s="11" t="n"/>
       <c r="K51" s="11" t="inlineStr">
         <is>
-          <t>TextArea</t>
-        </is>
-      </c>
-      <c r="L51" s="11" t="n"/>
+          <t>Button</t>
+        </is>
+      </c>
+      <c r="L51" s="11" t="inlineStr">
+        <is>
+          <t>icon: images/checkbox_false.gif</t>
+        </is>
+      </c>
       <c r="M51" s="11" t="n"/>
-      <c r="N51" s="11" t="n"/>
+      <c r="N51" s="11" t="inlineStr">
+        <is>
+          <t>mark_unread(inboxFg)</t>
+        </is>
+      </c>
       <c r="O51" s="11" t="n"/>
       <c r="P51" s="11" t="n"/>
     </row>
     <row r="52">
-      <c r="C52" s="5" t="inlineStr">
+      <c r="B52" s="1" t="n"/>
+      <c r="C52" s="11" t="n"/>
+      <c r="D52" s="11" t="inlineStr">
+        <is>
+          <t>bttComplete</t>
+        </is>
+      </c>
+      <c r="E52" s="11" t="inlineStr">
+        <is>
+          <t>Complete</t>
+        </is>
+      </c>
+      <c r="F52" s="11" t="n"/>
+      <c r="G52" s="11" t="n"/>
+      <c r="H52" s="11" t="n"/>
+      <c r="I52" s="11" t="n"/>
+      <c r="J52" s="11" t="n"/>
+      <c r="K52" s="11" t="inlineStr">
+        <is>
+          <t>Button</t>
+        </is>
+      </c>
+      <c r="L52" s="11" t="inlineStr">
+        <is>
+          <t>icon: images/commit_button.gif</t>
+        </is>
+      </c>
+      <c r="M52" s="11" t="n"/>
+      <c r="N52" s="11" t="inlineStr">
+        <is>
+          <t>mark_complete(inboxFg)</t>
+        </is>
+      </c>
+      <c r="O52" s="11" t="n"/>
+      <c r="P52" s="11" t="n"/>
+    </row>
+    <row r="53">
+      <c r="B53" s="1" t="n"/>
+      <c r="C53" s="11" t="n"/>
+      <c r="D53" s="11" t="inlineStr">
+        <is>
+          <t>bttDelete</t>
+        </is>
+      </c>
+      <c r="E53" s="11" t="inlineStr">
+        <is>
+          <t>Delete</t>
+        </is>
+      </c>
+      <c r="F53" s="11" t="n"/>
+      <c r="G53" s="11" t="n"/>
+      <c r="H53" s="11" t="n"/>
+      <c r="I53" s="11" t="n"/>
+      <c r="J53" s="11" t="n"/>
+      <c r="K53" s="11" t="inlineStr">
+        <is>
+          <t>Button</t>
+        </is>
+      </c>
+      <c r="L53" s="11" t="inlineStr">
+        <is>
+          <t>icon: images/delete_button.gif</t>
+        </is>
+      </c>
+      <c r="M53" s="11" t="n"/>
+      <c r="N53" s="11" t="inlineStr">
+        <is>
+          <t>mark_delete(inboxFg)</t>
+        </is>
+      </c>
+      <c r="O53" s="11" t="n"/>
+      <c r="P53" s="11" t="n"/>
+    </row>
+    <row r="54">
+      <c r="B54" s="1" t="n"/>
+      <c r="C54" s="11" t="inlineStr">
+        <is>
+          <t>usrRmkDialog</t>
+        </is>
+      </c>
+      <c r="D54" s="11" t="inlineStr">
+        <is>
+          <t>usrRmkField</t>
+        </is>
+      </c>
+      <c r="E54" s="11" t="inlineStr">
+        <is>
+          <t>Remark:</t>
+        </is>
+      </c>
+      <c r="F54" s="11" t="n"/>
+      <c r="G54" s="11" t="n"/>
+      <c r="H54" s="11" t="n"/>
+      <c r="I54" s="11" t="n"/>
+      <c r="J54" s="11" t="n"/>
+      <c r="K54" s="11" t="inlineStr">
+        <is>
+          <t>TextArea</t>
+        </is>
+      </c>
+      <c r="L54" s="11" t="n"/>
+      <c r="M54" s="11" t="n"/>
+      <c r="N54" s="11" t="n"/>
+      <c r="O54" s="11" t="n"/>
+      <c r="P54" s="11" t="n"/>
+    </row>
+    <row r="55">
+      <c r="C55" s="5" t="inlineStr">
         <is>
           <t>End of Table</t>
         </is>
       </c>
-      <c r="D52" s="3" t="n"/>
-      <c r="E52" s="3" t="n"/>
-      <c r="F52" s="3" t="n"/>
-      <c r="G52" s="3" t="n"/>
-      <c r="H52" s="3" t="n"/>
-      <c r="I52" s="3" t="n"/>
-      <c r="J52" s="3" t="n"/>
-      <c r="K52" s="3" t="n"/>
-      <c r="L52" s="3" t="n"/>
-      <c r="M52" s="3" t="n"/>
-      <c r="N52" s="3" t="n"/>
-      <c r="O52" s="3" t="n"/>
-      <c r="P52" s="3" t="n"/>
-    </row>
-    <row r="53"/>
-    <row r="54"/>
-    <row r="55"/>
-    <row r="56">
-      <c r="A56" s="7" t="inlineStr">
+      <c r="D55" s="3" t="n"/>
+      <c r="E55" s="3" t="n"/>
+      <c r="F55" s="3" t="n"/>
+      <c r="G55" s="3" t="n"/>
+      <c r="H55" s="3" t="n"/>
+      <c r="I55" s="3" t="n"/>
+      <c r="J55" s="3" t="n"/>
+      <c r="K55" s="3" t="n"/>
+      <c r="L55" s="3" t="n"/>
+      <c r="M55" s="3" t="n"/>
+      <c r="N55" s="3" t="n"/>
+      <c r="O55" s="3" t="n"/>
+      <c r="P55" s="3" t="n"/>
+    </row>
+    <row r="56"/>
+    <row r="57"/>
+    <row r="58"/>
+    <row r="59">
+      <c r="A59" s="7" t="inlineStr">
         <is>
           <t>subScreenTable</t>
         </is>
       </c>
-      <c r="B56" s="1" t="inlineStr">
+      <c r="B59" s="1" t="inlineStr">
         <is>
           <t>Sub Screen</t>
         </is>
       </c>
-      <c r="C56" s="3" t="inlineStr">
+      <c r="C59" s="3" t="inlineStr">
         <is>
           <t>Sub Screen Name</t>
         </is>
       </c>
-      <c r="D56" s="3" t="inlineStr">
+      <c r="D59" s="3" t="inlineStr">
         <is>
           <t>Field Groups</t>
         </is>
       </c>
-      <c r="E56" s="3" t="inlineStr">
+      <c r="E59" s="3" t="inlineStr">
         <is>
           <t>Remarks</t>
         </is>
       </c>
     </row>
-    <row r="57">
-      <c r="C57" s="11" t="inlineStr">
+    <row r="60">
+      <c r="C60" s="11" t="inlineStr">
         <is>
           <t>inputUserRmk</t>
         </is>
       </c>
-      <c r="D57" s="11" t="inlineStr">
+      <c r="D60" s="11" t="inlineStr">
         <is>
           <t>usrRmkDialog</t>
         </is>
       </c>
-      <c r="E57" s="11" t="n"/>
-    </row>
-    <row r="58">
-      <c r="C58" s="11" t="inlineStr">
+      <c r="E60" s="11" t="n"/>
+    </row>
+    <row r="61">
+      <c r="C61" s="11" t="inlineStr">
         <is>
           <t>Main Screen</t>
         </is>
       </c>
-      <c r="D58" s="11" t="inlineStr">
+      <c r="D61" s="11" t="inlineStr">
         <is>
           <t>schFg, dividingLine, inboxFg, toolbar</t>
         </is>
       </c>
-      <c r="E58" s="11" t="n"/>
-    </row>
-    <row r="59">
-      <c r="C59" s="5" t="inlineStr">
+      <c r="E61" s="11" t="n"/>
+    </row>
+    <row r="62">
+      <c r="C62" s="5" t="inlineStr">
         <is>
           <t>End of Table</t>
         </is>
       </c>
-      <c r="D59" s="3" t="n"/>
-      <c r="E59" s="3" t="n"/>
-    </row>
-    <row r="60"/>
-    <row r="61"/>
-    <row r="62">
-      <c r="B62" s="1" t="n"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="7" t="inlineStr">
+      <c r="D62" s="3" t="n"/>
+      <c r="E62" s="3" t="n"/>
+    </row>
+    <row r="63"/>
+    <row r="64"/>
+    <row r="65">
+      <c r="B65" s="1" t="n"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="7" t="inlineStr">
         <is>
           <t>fieldGroupLinkTable</t>
         </is>
       </c>
-      <c r="B63" s="1" t="inlineStr">
+      <c r="B66" s="1" t="inlineStr">
         <is>
           <t>Field Group Links</t>
         </is>
       </c>
-      <c r="C63" s="3" t="inlineStr">
+      <c r="C66" s="3" t="inlineStr">
         <is>
           <t>Field Group Name</t>
         </is>
       </c>
-      <c r="D63" s="3" t="inlineStr">
+      <c r="D66" s="3" t="inlineStr">
         <is>
           <t>Local Key</t>
         </is>
       </c>
-      <c r="E63" s="3" t="inlineStr">
+      <c r="E66" s="3" t="inlineStr">
         <is>
           <t>Parent Field Group Name</t>
         </is>
       </c>
-      <c r="F63" s="3" t="inlineStr">
+      <c r="F66" s="3" t="inlineStr">
         <is>
           <t>Parent Key</t>
         </is>
       </c>
-      <c r="G63" s="3" t="inlineStr">
+      <c r="G66" s="3" t="inlineStr">
         <is>
           <t>Remarks</t>
         </is>
       </c>
     </row>
-    <row r="64">
-      <c r="C64" s="11" t="n"/>
-      <c r="D64" s="11" t="n"/>
-      <c r="E64" s="11" t="n"/>
-      <c r="F64" s="11" t="n"/>
-      <c r="G64" s="11" t="n"/>
-    </row>
-    <row r="65">
-      <c r="C65" s="5" t="inlineStr">
+    <row r="67">
+      <c r="C67" s="11" t="n"/>
+      <c r="D67" s="11" t="n"/>
+      <c r="E67" s="11" t="n"/>
+      <c r="F67" s="11" t="n"/>
+      <c r="G67" s="11" t="n"/>
+    </row>
+    <row r="68">
+      <c r="C68" s="5" t="inlineStr">
         <is>
           <t>End of Table</t>
         </is>
       </c>
-      <c r="D65" s="3" t="n"/>
-      <c r="E65" s="3" t="n"/>
-      <c r="F65" s="3" t="n"/>
-      <c r="G65" s="3" t="n"/>
-    </row>
-    <row r="66"/>
-    <row r="67"/>
-    <row r="68">
-      <c r="B68" s="16" t="inlineStr">
+      <c r="D68" s="3" t="n"/>
+      <c r="E68" s="3" t="n"/>
+      <c r="F68" s="3" t="n"/>
+      <c r="G68" s="3" t="n"/>
+    </row>
+    <row r="69"/>
+    <row r="70"/>
+    <row r="71">
+      <c r="B71" s="16" t="inlineStr">
         <is>
           <t>Table Header and Footer for Field Groups</t>
         </is>
       </c>
-      <c r="E68" s="8" t="inlineStr">
+      <c r="E71" s="8" t="inlineStr">
         <is>
           <t>add as many levels as needed</t>
         </is>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="12" t="inlineStr">
+    <row r="72">
+      <c r="A72" s="12" t="inlineStr">
         <is>
           <t>headerFooterTable</t>
         </is>
       </c>
-      <c r="B69" s="13" t="n"/>
-      <c r="C69" s="17" t="inlineStr">
+      <c r="B72" s="13" t="n"/>
+      <c r="C72" s="17" t="inlineStr">
         <is>
           <t>Field Group Name</t>
         </is>
       </c>
-      <c r="D69" s="17" t="inlineStr">
+      <c r="D72" s="17" t="inlineStr">
         <is>
           <t>Field</t>
         </is>
       </c>
-      <c r="E69" s="17" t="inlineStr">
+      <c r="E72" s="17" t="inlineStr">
         <is>
           <t>Header Level 1</t>
         </is>
       </c>
-      <c r="F69" s="17" t="inlineStr">
+      <c r="F72" s="17" t="inlineStr">
         <is>
           <t>Header Level 2</t>
         </is>
       </c>
-      <c r="G69" s="17" t="inlineStr">
+      <c r="G72" s="17" t="inlineStr">
         <is>
           <t>Header Level 3</t>
         </is>
       </c>
-      <c r="H69" s="17" t="inlineStr">
+      <c r="H72" s="17" t="inlineStr">
         <is>
           <t>Footer</t>
         </is>
       </c>
-      <c r="I69" s="17" t="inlineStr">
+      <c r="I72" s="17" t="inlineStr">
         <is>
           <t>Remarks</t>
         </is>
       </c>
-      <c r="K69" s="8" t="inlineStr">
+      <c r="K72" s="8" t="inlineStr">
         <is>
           <t>optional for table field groups only</t>
         </is>
       </c>
     </row>
-    <row r="70">
-      <c r="C70" s="11" t="n"/>
-      <c r="D70" s="11" t="n"/>
-      <c r="E70" s="11" t="n"/>
-      <c r="F70" s="11" t="n"/>
-      <c r="G70" s="11" t="n"/>
-      <c r="H70" s="11" t="n"/>
-      <c r="I70" s="11" t="n"/>
-      <c r="K70" s="8" t="inlineStr">
+    <row r="73">
+      <c r="C73" s="11" t="n"/>
+      <c r="D73" s="11" t="n"/>
+      <c r="E73" s="11" t="n"/>
+      <c r="F73" s="11" t="n"/>
+      <c r="G73" s="11" t="n"/>
+      <c r="H73" s="11" t="n"/>
+      <c r="I73" s="11" t="n"/>
+      <c r="K73" s="8" t="inlineStr">
         <is>
           <t>this is only an example, does not match the above definition</t>
         </is>
       </c>
     </row>
-    <row r="71">
-      <c r="C71" s="5" t="inlineStr">
+    <row r="74">
+      <c r="C74" s="5" t="inlineStr">
         <is>
           <t>End of Table</t>
         </is>
       </c>
-      <c r="D71" s="3" t="n"/>
-      <c r="E71" s="3" t="n"/>
-      <c r="F71" s="3" t="n"/>
-      <c r="G71" s="3" t="n"/>
-      <c r="H71" s="3" t="n"/>
-      <c r="I71" s="3" t="n"/>
-    </row>
-    <row r="72">
-      <c r="H72" s="8" t="n"/>
+      <c r="D74" s="3" t="n"/>
+      <c r="E74" s="3" t="n"/>
+      <c r="F74" s="3" t="n"/>
+      <c r="G74" s="3" t="n"/>
+      <c r="H74" s="3" t="n"/>
+      <c r="I74" s="3" t="n"/>
+    </row>
+    <row r="75">
+      <c r="H75" s="8" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
